--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm2-Ramp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm2-Ramp2.xlsx
@@ -546,7 +546,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H2">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.20068566666666</v>
+        <v>71.67520133333333</v>
       </c>
       <c r="N2">
-        <v>180.602057</v>
+        <v>215.025604</v>
       </c>
       <c r="O2">
-        <v>0.6931440095362021</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="P2">
-        <v>0.6931440095362019</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="Q2">
-        <v>11.63406344161645</v>
+        <v>13.85156714193955</v>
       </c>
       <c r="R2">
-        <v>104.706570974548</v>
+        <v>124.664104277456</v>
       </c>
       <c r="S2">
-        <v>0.6931440095362021</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="T2">
-        <v>0.6931440095362019</v>
+        <v>0.7843164235321155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,7 +608,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H3">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,10 +629,10 @@
         <v>46.210711</v>
       </c>
       <c r="O3">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="P3">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="Q3">
         <v>2.976811850244889</v>
@@ -641,10 +641,10 @@
         <v>26.791306652204</v>
       </c>
       <c r="S3">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="T3">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,7 +670,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H4">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04082633333333333</v>
+        <v>1.213835666666667</v>
       </c>
       <c r="N4">
-        <v>0.122479</v>
+        <v>3.641507</v>
       </c>
       <c r="O4">
-        <v>0.0004700698682738952</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="P4">
-        <v>0.000470069868273895</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="Q4">
-        <v>0.007889879439555556</v>
+        <v>0.2345794071497777</v>
       </c>
       <c r="R4">
-        <v>0.07100891495600001</v>
+        <v>2.111214664348</v>
       </c>
       <c r="S4">
-        <v>0.0004700698682738952</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="T4">
-        <v>0.000470069868273895</v>
+        <v>0.0132825751602454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,7 +732,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H5">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.82361733333333</v>
+        <v>1.940298333333333</v>
       </c>
       <c r="N5">
-        <v>32.470852</v>
+        <v>5.820895</v>
       </c>
       <c r="O5">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="P5">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="Q5">
-        <v>2.091714559880889</v>
+        <v>0.3749717076422222</v>
       </c>
       <c r="R5">
-        <v>18.825431038928</v>
+        <v>3.37474536878</v>
       </c>
       <c r="S5">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="T5">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,7 +794,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H6">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.355539</v>
+        <v>1.081443333333333</v>
       </c>
       <c r="N6">
-        <v>1.066617</v>
+        <v>3.24433</v>
       </c>
       <c r="O6">
-        <v>0.00409363656372682</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="P6">
-        <v>0.004093636563726819</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="Q6">
-        <v>0.068709570932</v>
+        <v>0.2089939709022222</v>
       </c>
       <c r="R6">
-        <v>0.6183861383880001</v>
+        <v>1.88094573812</v>
       </c>
       <c r="S6">
-        <v>0.00409363656372682</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="T6">
-        <v>0.004093636563726819</v>
+        <v>0.01183385259719093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,7 +856,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H7">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.02738933333333333</v>
+        <v>0.07121833333333334</v>
       </c>
       <c r="N7">
-        <v>0.08216799999999999</v>
+        <v>0.213655</v>
       </c>
       <c r="O7">
-        <v>0.0003153577424401686</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="P7">
-        <v>0.0003153577424401685</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="Q7">
-        <v>0.005293116483555555</v>
+        <v>0.01376327526888889</v>
       </c>
       <c r="R7">
-        <v>0.047638048352</v>
+        <v>0.12386947742</v>
       </c>
       <c r="S7">
-        <v>0.0003153577424401686</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="T7">
-        <v>0.0003153577424401685</v>
+        <v>0.0007793170783036338</v>
       </c>
     </row>
   </sheetData>
